--- a/src/test/java/com/inetbanking/testData/Data.xlsx
+++ b/src/test/java/com/inetbanking/testData/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sayanta\Desktop\project\iNETBanking_V1\src\test\java\com\inetbanking\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sayantabera/My_Work_Folder/Java_Projects/iNETBanking_V1/src/test/java/com/inetbanking/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01676930-BC94-4616-A395-331C984FE6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D55BA2-3ED4-A444-89B1-F19C8E6A7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,15 +363,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -387,7 +387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -395,7 +395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>

--- a/src/test/java/com/inetbanking/testData/Data.xlsx
+++ b/src/test/java/com/inetbanking/testData/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sayantabera/My_Work_Folder/Java_Projects/iNETBanking_V1/src/test/java/com/inetbanking/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D55BA2-3ED4-A444-89B1-F19C8E6A7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE37486-2608-5F46-896B-42C76E19778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -43,19 +43,31 @@
   </si>
   <si>
     <t>AgaqEb</t>
+  </si>
+  <si>
+    <t>mngr610460</t>
+  </si>
+  <si>
+    <t>hanYnYv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,15 +376,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -387,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -395,15 +408,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -411,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
